--- a/p3.xlsx
+++ b/p3.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>4.342133</v>
+        <v>1.058663</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.181474</v>
+        <v>-4.373698</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.319841</v>
+        <v>3.504208</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.927095</v>
+        <v>-2.890825</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.999288</v>
+        <v>0.99966</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.223389</v>
+        <v>4.32703</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>4.594097</v>
+        <v>-1.460628</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.99912</v>
+        <v>0.9996</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>-1.942993</v>
+        <v>4.587859</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4.210967</v>
+        <v>0.168626</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.998957</v>
+        <v>0.999542</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>-3.688946</v>
+        <v>4.255752</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.872443</v>
+        <v>1.784858</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.9988</v>
+        <v>0.999485</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>-4.629291</v>
+        <v>3.376259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.883536</v>
+        <v>3.180921</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.998648</v>
+        <v>0.999429</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>-4.56422</v>
+        <v>2.063697</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-1.315502</v>
+        <v>4.180761</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.999374</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>-3.515173</v>
+        <v>0.485053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>-3.249281</v>
+        <v>4.660746</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.998358</v>
+        <v>0.999321</v>
       </c>
     </row>
     <row r="10">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>-1.711867</v>
+        <v>-1.162092</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-4.509474</v>
+        <v>4.563724</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.99822</v>
+        <v>0.999268</v>
       </c>
     </row>
     <row r="11">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.463524</v>
+        <v>-2.674646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>-4.837615</v>
+        <v>3.90442</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.998086</v>
+        <v>0.999217</v>
       </c>
     </row>
     <row r="12">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2.560656</v>
+        <v>-3.868892</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-4.172756</v>
+        <v>2.765879</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.997956</v>
+        <v>0.999167</v>
       </c>
     </row>
     <row r="13">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>4.154826</v>
+        <v>-4.602195</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-2.656635</v>
+        <v>1.287784</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.99783</v>
+        <v>0.999117</v>
       </c>
     </row>
     <row r="14">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>4.930922</v>
+        <v>-4.789063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-0.598074</v>
+        <v>-0.3516</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.997707</v>
+        <v>0.999069</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4.741618</v>
+        <v>-4.409909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1.593766</v>
+        <v>-1.957447</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.997588</v>
+        <v>0.999021</v>
       </c>
     </row>
     <row r="16">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3.630134</v>
+        <v>-3.511797</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3.492345</v>
+        <v>-3.341605</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.9974730000000001</v>
+        <v>0.9989749999999999</v>
       </c>
     </row>
     <row r="17">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1.8154</v>
+        <v>-2.201415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>4.736026</v>
+        <v>-4.3443</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.9973610000000001</v>
+        <v>0.998929</v>
       </c>
     </row>
     <row r="18">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>-0.355251</v>
+        <v>-0.631422</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>5.094178</v>
+        <v>-4.851866</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.997252</v>
+        <v>0.998884</v>
       </c>
     </row>
     <row r="19">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>-2.475102</v>
+        <v>1.018012</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>4.505765</v>
+        <v>-4.808644</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.997146</v>
+        <v>0.99884</v>
       </c>
     </row>
     <row r="20">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>-4.154782</v>
+        <v>2.560187</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>3.084963</v>
+        <v>-4.221961</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.997042</v>
+        <v>0.998797</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>-5.092336</v>
+        <v>3.822921</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>1.094739</v>
+        <v>-3.159886</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.996942</v>
+        <v>0.998754</v>
       </c>
     </row>
     <row r="22">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>-5.124485</v>
+        <v>4.667331</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-1.105026</v>
+        <v>-1.742328</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.996844</v>
+        <v>0.998712</v>
       </c>
     </row>
     <row r="23">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>-4.251082</v>
+        <v>5.002371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>-3.124226</v>
+        <v>-0.126702</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.996748</v>
+        <v>0.998672</v>
       </c>
     </row>
     <row r="24">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>-2.630022</v>
+        <v>4.793702</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-4.611561</v>
+        <v>1.51005</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.996656</v>
+        <v>0.998631</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>-0.545137</v>
+        <v>4.066179</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-5.31388</v>
+        <v>2.990999</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.996565</v>
+        <v>0.998592</v>
       </c>
     </row>
     <row r="26">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1.645971</v>
+        <v>2.899908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>-5.116272</v>
+        <v>4.158181</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.9964769999999999</v>
+        <v>0.998553</v>
       </c>
     </row>
     <row r="27">
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>3.57428</v>
+        <v>1.420565</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-4.057205</v>
+        <v>4.888965</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.99639</v>
+        <v>0.998515</v>
       </c>
     </row>
     <row r="28">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>4.920996</v>
+        <v>-0.214803</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-2.317563</v>
+        <v>5.108216</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.996306</v>
+        <v>0.9984769999999999</v>
       </c>
     </row>
     <row r="29">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>5.46839</v>
+        <v>-1.83483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-0.186751</v>
+        <v>4.795147</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.996224</v>
+        <v>0.99844</v>
       </c>
     </row>
     <row r="30">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>5.132176</v>
+        <v>-3.27187</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>1.987407</v>
+        <v>3.984335</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.996144</v>
+        <v>0.998404</v>
       </c>
     </row>
     <row r="31">
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>3.971172</v>
+        <v>-4.37913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3.856115</v>
+        <v>2.76103</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.996066</v>
+        <v>0.998368</v>
       </c>
     </row>
     <row r="32">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>2.17391</v>
+        <v>-5.045192</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>5.124913</v>
+        <v>1.251441</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.995989</v>
+        <v>0.998333</v>
       </c>
     </row>
     <row r="33">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>0.02544</v>
+        <v>-5.204546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>5.59828</v>
+        <v>-0.390846</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.995915</v>
+        <v>0.998299</v>
       </c>
     </row>
     <row r="34">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>-2.139515</v>
+        <v>-4.843227</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>5.207168</v>
+        <v>-2.000799</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.995842</v>
+        <v>0.998265</v>
       </c>
     </row>
     <row r="35">
@@ -1015,13 +1015,13 @@
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>-3.989207</v>
+        <v>-3.999175</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>4.016101</v>
+        <v>-3.418571</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.99577</v>
+        <v>0.998232</v>
       </c>
     </row>
     <row r="36">
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>-5.245045</v>
+        <v>-2.757465</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>2.209758</v>
+        <v>-4.505151</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.9957009999999999</v>
+        <v>0.9981989999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>-5.721917</v>
+        <v>-1.241063</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.062064</v>
+        <v>-5.155553</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.995632</v>
+        <v>0.998166</v>
       </c>
     </row>
     <row r="38">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>-5.353147</v>
+        <v>0.401848</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>-2.106809</v>
+        <v>-5.308337</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.995565</v>
+        <v>0.998135</v>
       </c>
     </row>
     <row r="39">
@@ -1079,13 +1079,13 @@
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>-4.197148</v>
+        <v>2.012619</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>-3.978617</v>
+        <v>-4.950681</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.998103</v>
       </c>
     </row>
     <row r="40">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>-2.425684</v>
+        <v>3.437492</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-5.283191</v>
+        <v>-4.118673</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.995436</v>
+        <v>0.998072</v>
       </c>
     </row>
     <row r="41">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>-0.296269</v>
+        <v>4.542086</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>-5.835996</v>
+        <v>-2.89296</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.995373</v>
+        <v>0.998042</v>
       </c>
     </row>
     <row r="42">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1.886625</v>
+        <v>5.223669</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-5.562178</v>
+        <v>-1.390315</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.995312</v>
+        <v>0.998012</v>
       </c>
     </row>
     <row r="43">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>3.815598</v>
+        <v>5.420161</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>-4.504322</v>
+        <v>0.247944</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.995252</v>
+        <v>0.997983</v>
       </c>
     </row>
     <row r="44">
@@ -1159,13 +1159,13 @@
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>5.223217</v>
+        <v>5.115124</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>-2.813579</v>
+        <v>1.869503</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.995193</v>
+        <v>0.997954</v>
       </c>
     </row>
     <row r="45">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>5.917891</v>
+        <v>4.338437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>-0.7261339999999999</v>
+        <v>3.325269</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.995135</v>
+        <v>0.997925</v>
       </c>
     </row>
     <row r="46">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>5.80818</v>
+        <v>3.16271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>1.471129</v>
+        <v>4.482925</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.995079</v>
+        <v>0.997897</v>
       </c>
     </row>
     <row r="47">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>4.912715</v>
+        <v>1.695933</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>3.480642</v>
+        <v>5.238613</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.995023</v>
+        <v>0.997869</v>
       </c>
     </row>
     <row r="48">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>3.355055</v>
+        <v>0.07111199999999999</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>5.034249</v>
+        <v>5.525767</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.994969</v>
+        <v>0.997842</v>
       </c>
     </row>
     <row r="49">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1.344809</v>
+        <v>-1.566056</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>5.928066</v>
+        <v>5.320386</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.994916</v>
+        <v>0.997815</v>
       </c>
     </row>
     <row r="50">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>-0.851934</v>
+        <v>-3.070333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>6.047734</v>
+        <v>4.642411</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.994864</v>
+        <v>0.997788</v>
       </c>
     </row>
     <row r="51">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>-2.948537</v>
+        <v>-4.309721</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>5.381206</v>
+        <v>3.553183</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.994812</v>
+        <v>0.997762</v>
       </c>
     </row>
     <row r="52">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>-4.675235</v>
+        <v>-5.176769</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>4.017933</v>
+        <v>2.149357</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.994762</v>
+        <v>0.997736</v>
       </c>
     </row>
     <row r="53">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>-5.813198</v>
+        <v>-5.597477</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>2.135106</v>
+        <v>0.553893</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.994713</v>
+        <v>0.997711</v>
       </c>
     </row>
     <row r="54">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>-6.221058</v>
+        <v>-5.537091</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>-0.026757</v>
+        <v>-1.095001</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.994664</v>
+        <v>0.997686</v>
       </c>
     </row>
     <row r="55">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>-5.850885</v>
+        <v>-5.002409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>-2.19539</v>
+        <v>-2.655967</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.9946159999999999</v>
+        <v>0.997661</v>
       </c>
     </row>
     <row r="56">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>-4.752056</v>
+        <v>-4.040489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>-4.101322</v>
+        <v>-3.996568</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.99457</v>
+        <v>0.997637</v>
       </c>
     </row>
     <row r="57">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>-3.063024</v>
+        <v>-2.733993</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>-5.510993</v>
+        <v>-5.004322</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>0.994524</v>
+        <v>0.997613</v>
       </c>
     </row>
     <row r="58">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>-0.99246</v>
+        <v>-1.193651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>-6.254474</v>
+        <v>-5.595801</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>0.994479</v>
+        <v>0.9975889999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1.207518</v>
+        <v>0.451431</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>-6.244643</v>
+        <v>-5.723097</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>0.994434</v>
+        <v>0.997565</v>
       </c>
     </row>
     <row r="60">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>3.272519</v>
+        <v>2.064766</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>-5.485847</v>
+        <v>-5.377192</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0.994391</v>
+        <v>0.997542</v>
       </c>
     </row>
     <row r="61">
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>4.957577</v>
+        <v>3.513826</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>-4.071429</v>
+        <v>-4.588062</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>0.994348</v>
+        <v>0.99752</v>
       </c>
     </row>
     <row r="62">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>6.065621</v>
+        <v>4.680799</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>-2.17084</v>
+        <v>-3.421582</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0.994306</v>
+        <v>0.997497</v>
       </c>
     </row>
     <row r="63">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>6.4695</v>
+        <v>5.47191</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>-0.008229999999999999</v>
+        <v>-1.973604</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0.994265</v>
+        <v>0.997475</v>
       </c>
     </row>
     <row r="64">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>6.125265</v>
+        <v>5.824592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>2.164671</v>
+        <v>-0.361737</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>0.994224</v>
+        <v>0.997453</v>
       </c>
     </row>
     <row r="65">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>5.075502</v>
+        <v>5.711988</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>4.098062</v>
+        <v>1.284416</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0.994184</v>
+        <v>0.997431</v>
       </c>
     </row>
     <row r="66">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>3.442704</v>
+        <v>5.144522</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>5.572501</v>
+        <v>2.833765</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>0.9941449999999999</v>
+        <v>0.99741</v>
       </c>
     </row>
     <row r="67">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>1.413795</v>
+        <v>4.168481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>6.423106</v>
+        <v>4.16412</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>0.994106</v>
+        <v>0.997389</v>
       </c>
     </row>
     <row r="68">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>-0.78213</v>
+        <v>2.861811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>6.556942</v>
+        <v>5.171649</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0.994068</v>
+        <v>0.997368</v>
       </c>
     </row>
     <row r="69">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>-2.900137</v>
+        <v>1.327539</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>5.961923</v>
+        <v>5.778698</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>0.994031</v>
+        <v>0.997347</v>
       </c>
     </row>
     <row r="70">
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>-4.706794</v>
+        <v>-0.314616</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>4.706539</v>
+        <v>5.939403</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0.993994</v>
+        <v>0.997327</v>
       </c>
     </row>
     <row r="71">
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>-6.005504</v>
+        <v>-1.937727</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>2.930771</v>
+        <v>5.642737</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>0.993958</v>
+        <v>0.9973070000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>-6.657139</v>
+        <v>-3.417496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0.829492</v>
+        <v>4.912816</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>0.993922</v>
+        <v>0.997287</v>
       </c>
     </row>
     <row r="73">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>-6.593922</v>
+        <v>-4.641678</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>-1.369599</v>
+        <v>3.806526</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0.993887</v>
+        <v>0.997268</v>
       </c>
     </row>
     <row r="74">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>-5.825302</v>
+        <v>-5.518393</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>-3.430964</v>
+        <v>2.408717</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>0.993853</v>
+        <v>0.9972490000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>-4.435477</v>
+        <v>-5.98273</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>-5.136363</v>
+        <v>0.8254</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0.993819</v>
+        <v>0.997229</v>
       </c>
     </row>
     <row r="76">
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>-2.573115</v>
+        <v>-6.001192</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>-6.307518</v>
+        <v>-0.824497</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>0.993785</v>
+        <v>0.997211</v>
       </c>
     </row>
     <row r="77">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>-0.434597</v>
+        <v>-5.573719</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>-6.82399</v>
+        <v>-2.418161</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>0.993752</v>
+        <v>0.997192</v>
       </c>
     </row>
     <row r="78">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1.757235</v>
+        <v>-4.733196</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>-6.634594</v>
+        <v>-3.838028</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0.99372</v>
+        <v>0.997174</v>
       </c>
     </row>
     <row r="79">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>3.77652</v>
+        <v>-3.542548</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>-5.761388</v>
+        <v>-4.980331</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>0.993688</v>
+        <v>0.997155</v>
       </c>
     </row>
     <row r="80">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>5.417511</v>
+        <v>-2.08971</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>-4.296073</v>
+        <v>-5.762482</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0.993656</v>
+        <v>0.997138</v>
       </c>
     </row>
     <row r="81">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>6.515084</v>
+        <v>-0.480875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>-2.389417</v>
+        <v>-6.128751</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>0.993625</v>
+        <v>0.99712</v>
       </c>
     </row>
     <row r="82">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>6.960629</v>
+        <v>1.167426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>-0.235006</v>
+        <v>-6.053898</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>0.993595</v>
+        <v>0.997102</v>
       </c>
     </row>
     <row r="83">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>6.711897</v>
+        <v>2.73684</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>1.950888</v>
+        <v>-5.544547</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>0.993565</v>
+        <v>0.997085</v>
       </c>
     </row>
     <row r="84">
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>5.796005</v>
+        <v>4.115656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>3.951174</v>
+        <v>-4.638253</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>0.9935349999999999</v>
+        <v>0.997068</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>4.305539</v>
+        <v>5.206631</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>5.569355</v>
+        <v>-3.400403</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0.993506</v>
+        <v>0.997051</v>
       </c>
     </row>
     <row r="86">
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>2.388334</v>
+        <v>5.933643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>6.648394</v>
+        <v>-1.919203</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>0.9934770000000001</v>
+        <v>0.997034</v>
       </c>
     </row>
     <row r="87">
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>0.232151</v>
+        <v>6.246732</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>7.085287</v>
+        <v>-0.29918</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>0.993448</v>
+        <v>0.997018</v>
       </c>
     </row>
     <row r="88">
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>-1.954139</v>
+        <v>6.125215</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>6.84006</v>
+        <v>1.346339</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>0.99342</v>
+        <v>0.997001</v>
       </c>
     </row>
     <row r="89">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>-3.960932</v>
+        <v>5.578709</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>5.938516</v>
+        <v>2.903205</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>0.993393</v>
+        <v>0.996985</v>
       </c>
     </row>
     <row r="90">
@@ -1895,13 +1895,13 @@
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>-5.597852</v>
+        <v>4.646053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>4.468655</v>
+        <v>4.264327</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>0.9933650000000001</v>
+        <v>0.996969</v>
       </c>
     </row>
     <row r="91">
@@ -1911,13 +1911,13 @@
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>-6.711418</v>
+        <v>3.39224</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>2.571296</v>
+        <v>5.336919</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>0.9933380000000001</v>
+        <v>0.996953</v>
       </c>
     </row>
     <row r="92">
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>-7.198826</v>
+        <v>1.903627</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>0.425968</v>
+        <v>6.048628</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>0.993312</v>
+        <v>0.996938</v>
       </c>
     </row>
     <row r="93">
@@ -1943,13 +1943,13 @@
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>-7.01669</v>
+        <v>0.281787</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>-1.76648</v>
+        <v>6.352164</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>0.993286</v>
+        <v>0.996922</v>
       </c>
     </row>
     <row r="94">
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>-6.184066</v>
+        <v>-1.363546</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>-3.802834</v>
+        <v>6.228148</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>0.99326</v>
+        <v>0.996907</v>
       </c>
     </row>
     <row r="95">
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>-4.77967</v>
+        <v>-2.921947</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>-5.496254</v>
+        <v>5.686035</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>0.993234</v>
+        <v>0.996892</v>
       </c>
     </row>
     <row r="96">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>-2.933698</v>
+        <v>-4.289679</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>-6.693077</v>
+        <v>4.763099</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>0.993209</v>
+        <v>0.996877</v>
       </c>
     </row>
     <row r="97">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>-0.815168</v>
+        <v>-5.376483</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>-7.286232</v>
+        <v>3.521586</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>0.993184</v>
+        <v>0.996862</v>
       </c>
     </row>
     <row r="98">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1.383955</v>
+        <v>-6.111363</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>-7.224136</v>
+        <v>2.044274</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>0.99316</v>
+        <v>0.996847</v>
       </c>
     </row>
     <row r="99">
@@ -2039,13 +2039,13 @@
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>3.466337</v>
+        <v>-6.446988</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>-6.514428</v>
+        <v>0.428769</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>0.993136</v>
+        <v>0.996833</v>
       </c>
     </row>
     <row r="100">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>5.246927</v>
+        <v>-6.362472</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>-5.222337</v>
+        <v>-1.219065</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>0.993112</v>
+        <v>0.996818</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +2071,13 @@
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>6.569137</v>
+        <v>-5.864389</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>-3.463996</v>
+        <v>-2.792092</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>0.993088</v>
+        <v>0.996804</v>
       </c>
     </row>
     <row r="102">
@@ -2087,13 +2087,13 @@
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>7.318154</v>
+        <v>-4.98599</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>-1.395428</v>
+        <v>-4.188843</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>0.993065</v>
+        <v>0.99679</v>
       </c>
     </row>
     <row r="103">
@@ -2103,13 +2103,13 @@
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>7.430317</v>
+        <v>-3.784718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>0.801711</v>
+        <v>-5.319969</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>0.993042</v>
+        <v>0.996776</v>
       </c>
     </row>
     <row r="104">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>6.897844</v>
+        <v>-2.338227</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>2.9363</v>
+        <v>-6.113798</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>0.993019</v>
+        <v>0.996762</v>
       </c>
     </row>
     <row r="105">
@@ -2135,13 +2135,13 @@
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>5.768632</v>
+        <v>-0.739178</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>4.824389</v>
+        <v>-6.520667</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>0.992997</v>
+        <v>0.996749</v>
       </c>
     </row>
     <row r="106">
@@ -2151,13 +2151,13 @@
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>4.141299</v>
+        <v>0.910815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>6.304857</v>
+        <v>-6.515793</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>0.9929750000000001</v>
+        <v>0.996735</v>
       </c>
     </row>
     <row r="107">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>2.155997</v>
+        <v>2.5077</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>7.252792</v>
+        <v>-6.100511</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>0.992953</v>
+        <v>0.996722</v>
       </c>
     </row>
     <row r="108">
@@ -2183,13 +2183,13 @@
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>-0.018082</v>
+        <v>3.951537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>7.589513</v>
+        <v>-5.301866</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>0.992931</v>
+        <v>0.996709</v>
       </c>
     </row>
     <row r="109">
@@ -2199,13 +2199,13 @@
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>-2.197391</v>
+        <v>5.152682</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>7.288499</v>
+        <v>-4.170605</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>0.99291</v>
+        <v>0.996696</v>
       </c>
     </row>
     <row r="110">
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>-4.1996</v>
+        <v>6.037213</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>6.376818</v>
+        <v>-2.777729</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0.992889</v>
+        <v>0.996683</v>
       </c>
     </row>
     <row r="111">
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>-5.858733</v>
+        <v>6.551305</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>4.932078</v>
+        <v>-1.209861</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0.992868</v>
+        <v>0.9966699999999999</v>
       </c>
     </row>
     <row r="112">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>-7.038653</v>
+        <v>6.664283</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>3.075255</v>
+        <v>0.436266</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>0.992848</v>
+        <v>0.996657</v>
       </c>
     </row>
     <row r="113">
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>-7.643801</v>
+        <v>6.370216</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>0.96012</v>
+        <v>2.05985</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>0.992827</v>
+        <v>0.996645</v>
       </c>
     </row>
     <row r="114">
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>-7.626406</v>
+        <v>5.687972</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>-1.239811</v>
+        <v>3.562196</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>0.992807</v>
+        <v>0.996632</v>
       </c>
     </row>
     <row r="115">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>-6.98967</v>
+        <v>4.659777</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>-3.345652</v>
+        <v>4.852667</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>0.992787</v>
+        <v>0.99662</v>
       </c>
     </row>
     <row r="116">
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>-5.786764</v>
+        <v>3.348387</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>-5.187667</v>
+        <v>5.854044</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>0.992768</v>
+        <v>0.996608</v>
       </c>
     </row>
     <row r="117">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>-4.115846</v>
+        <v>1.83308</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>-6.618761</v>
+        <v>6.506994</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>0.992748</v>
+        <v>0.996596</v>
       </c>
     </row>
     <row r="118">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>-2.111573</v>
+        <v>0.204727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>-7.525895</v>
+        <v>6.773393</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>0.992729</v>
+        <v>0.996584</v>
       </c>
     </row>
     <row r="119">
@@ -2359,13 +2359,13 @@
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>0.066095</v>
+        <v>-1.439736</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>-7.838566</v>
+        <v>6.638339</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>0.99271</v>
+        <v>0.996572</v>
       </c>
     </row>
     <row r="120">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>2.244878</v>
+        <v>-3.003115</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>-7.533767</v>
+        <v>6.110753</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>0.992692</v>
+        <v>0.99656</v>
       </c>
     </row>
     <row r="121">
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>4.253865</v>
+        <v>-4.393669</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>-6.637121</v>
+        <v>5.222575</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>0.992673</v>
+        <v>0.996548</v>
       </c>
     </row>
     <row r="122">
@@ -2407,13 +2407,13 @@
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>5.936821</v>
+        <v>-5.530419</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>-5.220203</v>
+        <v>4.026624</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>0.992655</v>
+        <v>0.996537</v>
       </c>
     </row>
     <row r="123">
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>7.164107</v>
+        <v>-6.347737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>-3.394342</v>
+        <v>2.593274</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>0.992637</v>
+        <v>0.996525</v>
       </c>
     </row>
     <row r="124">
@@ -2439,13 +2439,13 @@
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>7.842304</v>
+        <v>-6.798975</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>-1.301485</v>
+        <v>1.006175</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>0.992619</v>
+        <v>0.996514</v>
       </c>
     </row>
     <row r="125">
@@ -2455,13 +2455,13 @@
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>7.920884</v>
+        <v>-6.858931</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0.897111</v>
+        <v>-0.6427349999999999</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>0.992601</v>
+        <v>0.996503</v>
       </c>
     </row>
     <row r="126">
@@ -2471,13 +2471,13 @@
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>7.395471</v>
+        <v>-6.525056</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>3.033449</v>
+        <v>-2.258603</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>0.992584</v>
+        <v>0.996492</v>
       </c>
     </row>
     <row r="127">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>6.307549</v>
+        <v>-5.817334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>4.945627</v>
+        <v>-3.749116</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0.9925659999999999</v>
+        <v>0.996481</v>
       </c>
     </row>
     <row r="128">
@@ -2503,13 +2503,13 @@
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>4.740703</v>
+        <v>-4.776888</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>6.48997</v>
+        <v>-5.02973</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>0.992549</v>
+        <v>0.99647</v>
       </c>
     </row>
     <row r="129">
@@ -2519,13 +2519,13 @@
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>2.813786</v>
+        <v>-3.463411</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>7.551568</v>
+        <v>-6.028368</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>0.992532</v>
+        <v>0.996459</v>
       </c>
     </row>
     <row r="130">
@@ -2535,13 +2535,13 @@
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>0.671566</v>
+        <v>-1.951588</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>8.052462</v>
+        <v>-6.689345</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0.992516</v>
+        <v>0.996449</v>
       </c>
     </row>
     <row r="131">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>-1.526359</v>
+        <v>-0.326733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>7.956943</v>
+        <v>-6.976307</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.992499</v>
+        <v>0.996438</v>
       </c>
     </row>
     <row r="132">
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>-3.617549</v>
+        <v>1.320095</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>7.273624</v>
+        <v>-6.874049</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>0.992483</v>
+        <v>0.996427</v>
       </c>
     </row>
     <row r="133">
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>-5.448687</v>
+        <v>2.897227</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>6.054225</v>
+        <v>-6.389121</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>0.992467</v>
+        <v>0.996417</v>
       </c>
     </row>
     <row r="134">
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>-6.886661</v>
+        <v>4.317463</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>4.389223</v>
+        <v>-5.549224</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0.992451</v>
+        <v>0.996407</v>
       </c>
     </row>
     <row r="135">
@@ -2615,13 +2615,13 @@
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>-7.827976</v>
+        <v>5.502837</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>2.400775</v>
+        <v>-4.401448</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>0.992435</v>
+        <v>0.996397</v>
       </c>
     </row>
     <row r="136">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>-8.205849000000001</v>
+        <v>6.388787</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>0.23347</v>
+        <v>-3.009474</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0.9924190000000001</v>
+        <v>0.996386</v>
       </c>
     </row>
     <row r="137">
@@ -2647,13 +2647,13 @@
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>-7.99454</v>
+        <v>6.927545</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>-1.956358</v>
+        <v>-1.449909</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>0.992403</v>
+        <v>0.996376</v>
       </c>
     </row>
     <row r="138">
@@ -2663,13 +2663,13 @@
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>-7.210662</v>
+        <v>7.090544</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>-4.011969</v>
+        <v>0.19202</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>0.992388</v>
+        <v>0.996366</v>
       </c>
     </row>
     <row r="139">
@@ -2679,13 +2679,13 @@
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>-5.911459</v>
+        <v>6.869764</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>-5.787376</v>
+        <v>1.827182</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>0.9923729999999999</v>
+        <v>0.996357</v>
       </c>
     </row>
     <row r="140">
@@ -2695,13 +2695,13 @@
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>-4.190232</v>
+        <v>6.277938</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>-7.157551</v>
+        <v>3.367391</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>0.992358</v>
+        <v>0.996347</v>
       </c>
     </row>
     <row r="141">
@@ -2711,13 +2711,13 @@
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>-2.169312</v>
+        <v>5.347643</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>-8.026966</v>
+        <v>4.730127</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>0.992343</v>
+        <v>0.996337</v>
       </c>
     </row>
     <row r="142">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>0.008886</v>
+        <v>4.129348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>-8.335917999999999</v>
+        <v>5.842897</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>0.992328</v>
+        <v>0.996328</v>
       </c>
     </row>
     <row r="143">
@@ -2743,13 +2743,13 @@
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>2.192048</v>
+        <v>2.688531</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>-8.064245</v>
+        <v>6.646979</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>0.992314</v>
+        <v>0.996318</v>
       </c>
     </row>
     <row r="144">
@@ -2759,13 +2759,13 @@
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>4.22865</v>
+        <v>1.102052</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>-7.232229</v>
+        <v>7.100392</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0.992299</v>
+        <v>0.996309</v>
       </c>
     </row>
     <row r="145">
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>5.978419</v>
+        <v>-0.54603</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>-5.898696</v>
+        <v>7.179937</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>0.992285</v>
+        <v>0.996299</v>
       </c>
     </row>
     <row r="146">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>7.321826</v>
+        <v>-2.168947</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>-4.156497</v>
+        <v>6.882214</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>0.992271</v>
+        <v>0.99629</v>
       </c>
     </row>
     <row r="147">
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>8.168006</v>
+        <v>-3.681798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>-2.125739</v>
+        <v>6.223594</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>0.9922569999999999</v>
+        <v>0.996281</v>
       </c>
     </row>
     <row r="148">
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>8.460589000000001</v>
+        <v>-5.005952</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>0.054719</v>
+        <v>5.239156</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>0.992243</v>
+        <v>0.996272</v>
       </c>
     </row>
     <row r="149">
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>8.181096999999999</v>
+        <v>-6.073063</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>2.236893</v>
+        <v>3.980675</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>0.992229</v>
+        <v>0.996263</v>
       </c>
     </row>
     <row r="150">
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>7.349727</v>
+        <v>-6.828498</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>4.273759</v>
+        <v>2.513767</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>0.992215</v>
+        <v>0.996254</v>
       </c>
     </row>
     <row r="151">
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>6.023534</v>
+        <v>-7.234009</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>6.029097</v>
+        <v>0.914373</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>0.992202</v>
+        <v>0.996245</v>
       </c>
     </row>
     <row r="152">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>4.292178</v>
+        <v>-7.26952</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>7.38645</v>
+        <v>-0.735244</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>0.992189</v>
+        <v>0.996236</v>
       </c>
     </row>
     <row r="153">
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>2.271584</v>
+        <v>-6.933971</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>8.256622</v>
+        <v>-2.350765</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>0.992175</v>
+        <v>0.996227</v>
       </c>
     </row>
     <row r="154">
@@ -2919,13 +2919,13 @@
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>0.095966</v>
+        <v>-6.245173</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>8.583247999999999</v>
+        <v>-3.850117</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>0.992162</v>
+        <v>0.996218</v>
       </c>
     </row>
     <row r="155">
@@ -2935,13 +2935,13 @@
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>-2.091217</v>
+        <v>-5.238717</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>8.346113000000001</v>
+        <v>-5.157613</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>0.9921489999999999</v>
+        <v>0.99621</v>
       </c>
     </row>
     <row r="156">
@@ -2951,13 +2951,13 @@
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>-4.146758</v>
+        <v>-3.965996</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>7.562052</v>
+        <v>-6.2077</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>0.992136</v>
+        <v>0.996201</v>
       </c>
     </row>
     <row r="157">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>-5.937034</v>
+        <v>-2.491468</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>6.283415</v>
+        <v>-6.94815</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>0.992124</v>
+        <v>0.996193</v>
       </c>
     </row>
     <row r="158">
@@ -2983,13 +2983,13 @@
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>-7.346556</v>
+        <v>-0.8892949999999999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>4.59426</v>
+        <v>-7.34254</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>0.992111</v>
+        <v>0.996184</v>
       </c>
     </row>
     <row r="159">
@@ -2999,13 +2999,13 @@
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>-8.285216999999999</v>
+        <v>0.760443</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>2.604557</v>
+        <v>-7.371906</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>0.992099</v>
+        <v>0.996176</v>
       </c>
     </row>
     <row r="160">
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>-8.693783</v>
+        <v>2.375788</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>0.442828</v>
+        <v>-7.035512</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>0.992086</v>
+        <v>0.9961680000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>-8.547331</v>
+        <v>3.876967</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>-1.752292</v>
+        <v>-6.350705</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0.992074</v>
+        <v>0.99616</v>
       </c>
     </row>
     <row r="162">
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>-7.856436</v>
+        <v>5.190302</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>-3.840991</v>
+        <v>-5.35188</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>0.992062</v>
+        <v>0.996151</v>
       </c>
     </row>
     <row r="163">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>-6.666105</v>
+        <v>6.25176</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>-5.691156</v>
+        <v>-4.088628</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>0.99205</v>
+        <v>0.996143</v>
       </c>
     </row>
     <row r="164">
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>-5.052539</v>
+        <v>7.009988</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>-7.186618</v>
+        <v>-2.623162</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>0.992038</v>
+        <v>0.996135</v>
       </c>
     </row>
     <row r="165">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>-3.118001</v>
+        <v>7.428685</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>-8.234264</v>
+        <v>-1.027169</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>0.992026</v>
+        <v>0.996127</v>
       </c>
     </row>
     <row r="166">
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>-0.984128</v>
+        <v>7.488215</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>-8.769602000000001</v>
+        <v>0.621757</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>0.992014</v>
+        <v>0.99612</v>
       </c>
     </row>
     <row r="167">
@@ -3127,13 +3127,13 @@
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>1.215853</v>
+        <v>7.186397</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>-8.760453</v>
+        <v>2.243918</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>0.992003</v>
+        <v>0.996112</v>
       </c>
     </row>
     <row r="168">
@@ -3143,13 +3143,13 @@
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>3.345509</v>
+        <v>6.538435</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>-8.20858</v>
+        <v>3.761364</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>0.991991</v>
+        <v>0.996104</v>
       </c>
     </row>
     <row r="169">
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>5.273652</v>
+        <v>5.576024</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>-7.14921</v>
+        <v>5.101613</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>0.99198</v>
+        <v>0.996096</v>
       </c>
     </row>
     <row r="170">
@@ -3175,13 +3175,13 @@
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>6.882333</v>
+        <v>4.345685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>-5.648494</v>
+        <v>6.201052</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0.991968</v>
+        <v>0.996089</v>
       </c>
     </row>
     <row r="171">
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>8.073907999999999</v>
+        <v>2.906403</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>-3.79913</v>
+        <v>7.007878</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0.991957</v>
+        <v>0.996081</v>
       </c>
     </row>
     <row r="172">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>8.776759</v>
+        <v>1.326724</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>-1.714424</v>
+        <v>7.48444</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>0.991946</v>
+        <v>0.996073</v>
       </c>
     </row>
     <row r="173">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>8.949351</v>
+        <v>-0.318577</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>0.478796</v>
+        <v>7.60888</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>0.991935</v>
+        <v>0.996066</v>
       </c>
     </row>
     <row r="174">
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>8.582407</v>
+        <v>-1.952062</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>2.647978</v>
+        <v>7.376009</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>0.991924</v>
+        <v>0.996059</v>
       </c>
     </row>
     <row r="175">
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>7.699121</v>
+        <v>-3.497282</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>4.662874</v>
+        <v>6.797395</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>0.991913</v>
+        <v>0.996051</v>
       </c>
     </row>
     <row r="176">
@@ -3271,13 +3271,13 @@
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>6.35342</v>
+        <v>-4.882336</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>6.403302</v>
+        <v>5.900666</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>0.991903</v>
+        <v>0.996044</v>
       </c>
     </row>
     <row r="177">
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>4.626422</v>
+        <v>-6.043168</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>7.766196</v>
+        <v>4.728075</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>0.991892</v>
+        <v>0.996037</v>
       </c>
     </row>
     <row r="178">
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>2.621338</v>
+        <v>-6.926455</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>8.671535</v>
+        <v>3.334409</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>0.991882</v>
+        <v>0.99603</v>
       </c>
     </row>
     <row r="179">
@@ -3319,13 +3319,13 @@
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>0.457142</v>
+        <v>-7.491974</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>9.066824</v>
+        <v>1.784348</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>0.9918709999999999</v>
+        <v>0.996022</v>
       </c>
     </row>
     <row r="180">
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>-1.738592</v>
+        <v>-7.714321</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>8.92989</v>
+        <v>0.149398</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>0.991861</v>
+        <v>0.996015</v>
       </c>
     </row>
     <row r="181">
@@ -3351,13 +3351,13 @@
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>-3.837248</v>
+        <v>-7.583944</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>8.269855</v>
+        <v>-1.495443</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>0.99185</v>
+        <v>0.996008</v>
       </c>
     </row>
     <row r="182">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>-5.716675</v>
+        <v>-7.107432</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>7.126285</v>
+        <v>-3.075138</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>0.9918400000000001</v>
+        <v>0.996001</v>
       </c>
     </row>
     <row r="183">
@@ -3383,13 +3383,13 @@
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>-7.268217</v>
+        <v>-6.307063</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>5.566568</v>
+        <v>-4.51802</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>0.99183</v>
+        <v>0.995994</v>
       </c>
     </row>
     <row r="184">
@@ -3399,13 +3399,13 @@
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>-8.402848000000001</v>
+        <v>-5.21966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>3.68173</v>
+        <v>-5.75901</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>0.99182</v>
+        <v>0.995987</v>
       </c>
     </row>
     <row r="185">
@@ -3415,13 +3415,13 @@
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>-9.056096999999999</v>
+        <v>-3.894793</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>1.580953</v>
+        <v>-6.742486</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>0.99181</v>
+        <v>0.995981</v>
       </c>
     </row>
     <row r="186">
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>-9.191494</v>
+        <v>-2.392436</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>-0.614877</v>
+        <v>-7.424707</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>0.9918</v>
+        <v>0.995974</v>
       </c>
     </row>
     <row r="187">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>-8.802358</v>
+        <v>-0.780191</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>-2.780188</v>
+        <v>-7.775655</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>0.991791</v>
+        <v>0.995967</v>
       </c>
     </row>
     <row r="188">
@@ -3463,13 +3463,13 @@
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>-7.911879</v>
+        <v>0.869803</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>-4.791915</v>
+        <v>-7.78026</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>0.991781</v>
+        <v>0.99596</v>
       </c>
     </row>
     <row r="189">
@@ -3479,13 +3479,13 @@
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>-6.571494</v>
+        <v>2.484112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>-6.536441</v>
+        <v>-7.438929</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>0.991771</v>
+        <v>0.995954</v>
       </c>
     </row>
     <row r="190">
@@ -3495,13 +3495,13 @@
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>-4.857706</v>
+        <v>3.991277</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>-7.915908</v>
+        <v>-6.767398</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>0.991762</v>
+        <v>0.995947</v>
       </c>
     </row>
     <row r="191">
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>-2.867527</v>
+        <v>5.324948</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>-8.853559000000001</v>
+        <v>-5.795893</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>0.991752</v>
+        <v>0.995941</v>
       </c>
     </row>
     <row r="192">
@@ -3527,13 +3527,13 @@
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>-0.71285</v>
+        <v>6.426759</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>-9.297815</v>
+        <v>-4.567679</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>0.991743</v>
+        <v>0.995934</v>
       </c>
     </row>
     <row r="193">
@@ -3543,13 +3543,13 @@
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>1.485942</v>
+        <v>7.248818</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>-9.224900999999999</v>
+        <v>-3.137043</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>0.991734</v>
+        <v>0.995928</v>
       </c>
     </row>
     <row r="194">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>3.606733</v>
+        <v>7.755703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>-8.639884</v>
+        <v>-1.56683</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>0.991724</v>
+        <v>0.9959209999999999</v>
       </c>
     </row>
     <row r="195">
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>5.532449</v>
+        <v>7.925896</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>-7.576109</v>
+        <v>0.074369</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>0.991715</v>
+        <v>0.995915</v>
       </c>
     </row>
     <row r="196">
@@ -3591,13 +3591,13 @@
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>7.157449</v>
+        <v>7.752598</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>-6.093081</v>
+        <v>1.715243</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>0.991706</v>
+        <v>0.995909</v>
       </c>
     </row>
     <row r="197">
@@ -3607,13 +3607,13 @@
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>8.393209000000001</v>
+        <v>7.243891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>-4.272944</v>
+        <v>3.284866</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>0.9916970000000001</v>
+        <v>0.995902</v>
       </c>
     </row>
     <row r="198">
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>9.172984</v>
+        <v>6.422264</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>-2.215773</v>
+        <v>4.71575</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>0.991688</v>
+        <v>0.995896</v>
       </c>
     </row>
     <row r="199">
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>9.455233</v>
+        <v>5.323521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>-0.033954</v>
+        <v>5.946711</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>0.991679</v>
+        <v>0.9958900000000001</v>
       </c>
     </row>
     <row r="200">
@@ -3655,13 +3655,13 @@
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>9.225617</v>
+        <v>3.995136</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>2.154031</v>
+        <v>6.925432</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0.991671</v>
+        <v>0.995884</v>
       </c>
     </row>
     <row r="201">
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>8.497515999999999</v>
+        <v>2.49413</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>4.230053</v>
+        <v>7.610618</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>0.991662</v>
+        <v>0.995878</v>
       </c>
     </row>
     <row r="202">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>7.311038</v>
+        <v>0.884564</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>6.082692</v>
+        <v>7.973657</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>0.991653</v>
+        <v>0.995872</v>
       </c>
     </row>
     <row r="203">
@@ -3703,13 +3703,13 @@
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>5.73061</v>
+        <v>-0.76523</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>7.613132</v>
+        <v>7.999721</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>0.991645</v>
+        <v>0.995866</v>
       </c>
     </row>
     <row r="204">
@@ -3719,13 +3719,13 @@
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>3.841314</v>
+        <v>-2.385571</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>8.740323999999999</v>
+        <v>7.688279</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>0.991636</v>
+        <v>0.99586</v>
       </c>
     </row>
     <row r="205">
@@ -3735,13 +3735,13 @@
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>1.74416</v>
+        <v>-3.908368</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>9.405112000000001</v>
+        <v>7.052993</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>0.991628</v>
+        <v>0.995854</v>
       </c>
     </row>
     <row r="206">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>-0.449412</v>
+        <v>-5.269964</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>9.573166000000001</v>
+        <v>6.121029</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>0.991619</v>
+        <v>0.995848</v>
       </c>
     </row>
     <row r="207">
@@ -3767,13 +3767,13 @@
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>-2.623508</v>
+        <v>-6.413753</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>9.236554999999999</v>
+        <v>4.931808</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>0.991611</v>
+        <v>0.995842</v>
       </c>
     </row>
     <row r="208">
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>-4.663914</v>
+        <v>-7.292484</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>8.413911000000001</v>
+        <v>3.535265</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>0.991603</v>
+        <v>0.9958360000000001</v>
       </c>
     </row>
     <row r="209">
@@ -3799,13 +3799,13 @@
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>-6.46406</v>
+        <v>-7.870136</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>7.149208</v>
+        <v>1.989685</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>0.991594</v>
+        <v>0.995831</v>
       </c>
     </row>
     <row r="210">
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>-7.930506</v>
+        <v>-8.123317999999999</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>5.509227</v>
+        <v>0.359226</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>0.991586</v>
+        <v>0.995825</v>
       </c>
     </row>
     <row r="211">
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>-8.987672</v>
+        <v>-8.04213</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>3.579875</v>
+        <v>-1.288776</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>0.991578</v>
+        <v>0.995819</v>
       </c>
     </row>
     <row r="212">
@@ -3847,13 +3847,13 @@
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>-9.581588999999999</v>
+        <v>-7.630454</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>1.461559</v>
+        <v>-2.886594</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>0.99157</v>
+        <v>0.9958129999999999</v>
       </c>
     </row>
     <row r="213">
@@ -3863,13 +3863,13 @@
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>-9.682477</v>
+        <v>-6.905685</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>-0.736127</v>
+        <v>-4.368893</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>0.9915620000000001</v>
+        <v>0.995808</v>
       </c>
     </row>
     <row r="214">
@@ -3879,13 +3879,13 @@
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>-9.286054999999999</v>
+        <v>-5.897908</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>-2.900116</v>
+        <v>-5.675371</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>0.991554</v>
+        <v>0.995802</v>
       </c>
     </row>
     <row r="215">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>-8.413522</v>
+        <v>-4.648573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>-4.919692</v>
+        <v>-6.753175</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>0.991547</v>
+        <v>0.995797</v>
       </c>
     </row>
     <row r="216">
@@ -3911,13 +3911,13 @@
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>-7.110246</v>
+        <v>-3.208719</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>-6.692112</v>
+        <v>-7.55898</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>0.9915389999999999</v>
+        <v>0.995791</v>
       </c>
     </row>
     <row r="217">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>-5.443234</v>
+        <v>-1.636836</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>-8.127753999999999</v>
+        <v>-8.060662000000001</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>0.9915310000000001</v>
+        <v>0.9957859999999999</v>
       </c>
     </row>
     <row r="218">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>-3.497543</v>
+        <v>0.003552</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>-9.154540000000001</v>
+        <v>-8.238503</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>0.991523</v>
+        <v>0.99578</v>
       </c>
     </row>
     <row r="219">
@@ -3959,13 +3959,13 @@
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>-1.371829</v>
+        <v>1.646478</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>-9.721406</v>
+        <v>-8.085883000000001</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>0.991516</v>
+        <v>0.995775</v>
       </c>
     </row>
     <row r="220">
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>0.826743</v>
+        <v>3.226193</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>-9.800682</v>
+        <v>-7.609436</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>0.9915079999999999</v>
+        <v>0.995769</v>
       </c>
     </row>
     <row r="221">
@@ -3991,13 +3991,13 @@
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>2.987932</v>
+        <v>4.679783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>-9.389268</v>
+        <v>-6.828683</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>0.991501</v>
+        <v>0.995764</v>
       </c>
     </row>
     <row r="222">
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>5.003959</v>
+        <v>5.949652</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>-8.508566</v>
+        <v>-5.77515</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>0.991493</v>
+        <v>0.9957589999999999</v>
       </c>
     </row>
     <row r="223">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>6.774839</v>
+        <v>6.985761</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>-7.203199</v>
+        <v>-4.491025</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>0.991486</v>
+        <v>0.995754</v>
       </c>
     </row>
     <row r="224">
@@ -4039,13 +4039,13 @@
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>8.213267</v>
+        <v>7.747544</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>-5.53859</v>
+        <v>-3.027404</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>0.991478</v>
+        <v>0.995748</v>
       </c>
     </row>
     <row r="225">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>9.248816</v>
+        <v>8.20543</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>-3.597549</v>
+        <v>-1.442209</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>0.991471</v>
+        <v>0.995743</v>
       </c>
     </row>
   </sheetData>
